--- a/테이블/전투/방어/방어 스트링 테이블.xlsx
+++ b/테이블/전투/방어/방어 스트링 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\방어\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D960A5-E5CC-4503-BABC-09703C55A817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB666A-A995-4A6B-BBFD-9E50B705FDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인 정의" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>속성 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,47 @@
   </si>
   <si>
     <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막기</t>
+  </si>
+  <si>
+    <t>그림자는 주인의 곁을 지킨다. 어떤 공격이 와도 그건 변치 않는다. 곁을 지키기 위해, 기초적인 방어는 호흡과도 같았다.</t>
+  </si>
+  <si>
+    <t>지구력을 소모해 공격을 방어합니다.</t>
+  </si>
+  <si>
+    <t>방어한 공격량 30당 0.5m씩 후방으로 밀려남.</t>
+  </si>
+  <si>
+    <t>{방어조작키1}을(를) 입력.</t>
+  </si>
+  <si>
+    <t>지구력 5소모</t>
+  </si>
+  <si>
+    <t>메인 시나리오를 진행하십시오.</t>
+  </si>
+  <si>
+    <t>흘리기</t>
+  </si>
+  <si>
+    <t>흐름과도 같은 자연스러운 전환. 공수의 일체는 모든 전투의 핵심이다.</t>
+  </si>
+  <si>
+    <t>방어 발동 후 5초 이내 공격시 공격력 50% 증가.</t>
+  </si>
+  <si>
+    <t>지구력 5, 정신력 1 소모</t>
+  </si>
+  <si>
+    <t>지구력과 정신력을 소모해 공격을 방어합니다. 다음 공격을 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{방어조작키2}을(를) 입력.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -741,20 +782,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:I1"/>
+  <dimension ref="B1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
@@ -791,6 +827,58 @@
         <v>획득 정보</v>
       </c>
     </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
